--- a/generated_files/Simplified models coefficients enhanced - symbolic - thresholds.xlsx
+++ b/generated_files/Simplified models coefficients enhanced - symbolic - thresholds.xlsx
@@ -507,13 +507,13 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.000149479016840288</v>
+        <v>0.02559292832107414</v>
       </c>
       <c r="C2">
         <v>0.09155427408752465</v>
       </c>
       <c r="D2">
-        <v>0.0003347094195767931</v>
+        <v>0.05730700110751875</v>
       </c>
       <c r="E2">
         <v>0.07486187082790419</v>
@@ -533,13 +533,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.000414247318413793</v>
+        <v>0.07931140281402195</v>
       </c>
       <c r="C3">
         <v>0.5877191892266991</v>
       </c>
       <c r="D3">
-        <v>0.0009275715243408913</v>
+        <v>0.1775919735280712</v>
       </c>
       <c r="E3">
         <v>0.1788901230306882</v>
@@ -559,13 +559,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>4.815453942535426e-05</v>
+        <v>0.0002625112864950772</v>
       </c>
       <c r="C4">
         <v>0.3317846299634177</v>
       </c>
       <c r="D4">
-        <v>0.0001078263577172794</v>
+        <v>0.0005878082569207996</v>
       </c>
       <c r="E4">
         <v>0.03022894881925649</v>
@@ -585,13 +585,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>4455.787171004262</v>
+        <v>1422709.490037483</v>
       </c>
       <c r="C5">
         <v>3802952.421918105</v>
       </c>
       <c r="D5">
-        <v>9977.279549263085</v>
+        <v>3185693.06717902</v>
       </c>
       <c r="E5">
         <v>950152.9679838824</v>
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03050110367204704</v>
+        <v>4.140346717483768</v>
       </c>
       <c r="C6">
         <v>64.10861478754916</v>
       </c>
       <c r="D6">
-        <v>0.06829725617897495</v>
+        <v>9.270953716108231</v>
       </c>
       <c r="E6">
         <v>16.67844229494125</v>
@@ -637,13 +637,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>194.6219081049807</v>
+        <v>390.0349302363251</v>
       </c>
       <c r="C7">
         <v>543182.023661281</v>
       </c>
       <c r="D7">
-        <v>435.792175221137</v>
+        <v>873.3557918270282</v>
       </c>
       <c r="E7">
         <v>138874.7449751976</v>
@@ -663,13 +663,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>2972.949305408946</v>
+        <v>158029.110066363</v>
       </c>
       <c r="C8">
         <v>12452115.53792153</v>
       </c>
       <c r="D8">
-        <v>6656.948630508143</v>
+        <v>353854.5598213583</v>
       </c>
       <c r="E8">
         <v>2365011.745054289</v>
@@ -689,13 +689,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.01280920444944207</v>
+        <v>0.07418371771983767</v>
       </c>
       <c r="C9">
         <v>95.93052443395332</v>
       </c>
       <c r="D9">
-        <v>0.02868202826818225</v>
+        <v>0.1661101981061685</v>
       </c>
       <c r="E9">
         <v>18.60486761438206</v>
@@ -742,7 +742,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>41385485.38452398</v>
+        <v>75485863.09598361</v>
       </c>
       <c r="C2">
         <v>189216000</v>
@@ -759,7 +759,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>2.802741823933777</v>
+        <v>446.6195756126315</v>
       </c>
       <c r="C3">
         <v>189216000</v>
@@ -776,7 +776,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>8.061550928163408</v>
+        <v>1384.285557677462</v>
       </c>
       <c r="C4">
         <v>189216000</v>
@@ -793,7 +793,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>8.061550928163408</v>
+        <v>1384.285557677462</v>
       </c>
       <c r="C5">
         <v>189216000</v>
@@ -810,7 +810,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>1.213665202525688</v>
+        <v>4.952746788837904</v>
       </c>
       <c r="C6">
         <v>189216000</v>
@@ -827,7 +827,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>82843682.69519751</v>
+        <v>24821819141.12708</v>
       </c>
       <c r="C7">
         <v>189216000</v>
@@ -844,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>619.2697611404756</v>
+        <v>72308.3967294232</v>
       </c>
       <c r="C8">
         <v>189216000</v>
@@ -861,7 +861,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>345.1578975723044</v>
+        <v>1415.729809001654</v>
       </c>
       <c r="C9">
         <v>189216000</v>
@@ -878,7 +878,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>4130553.812509934</v>
+        <v>7539194.980866863</v>
       </c>
       <c r="C10">
         <v>189216000</v>
@@ -895,7 +895,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>555080569.721857</v>
+        <v>1318489918.871246</v>
       </c>
       <c r="C11">
         <v>189216000</v>
@@ -912,7 +912,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>67588813.6670128</v>
+        <v>2772274546.544696</v>
       </c>
       <c r="C12">
         <v>189216000</v>
@@ -956,7 +956,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>41385485.38452398</v>
+        <v>75485863.09598361</v>
       </c>
       <c r="C2">
         <v>189216000</v>
@@ -973,7 +973,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>2.802741823933777</v>
+        <v>446.6195756126315</v>
       </c>
       <c r="C3">
         <v>189216000</v>
@@ -990,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>8.061550928163408</v>
+        <v>1384.285557677462</v>
       </c>
       <c r="C4">
         <v>189216000</v>
@@ -1007,7 +1007,7 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>2167539.729580336</v>
+        <v>5197694.502094707</v>
       </c>
       <c r="C5">
         <v>189216000</v>
@@ -1024,7 +1024,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>8.061550928163408</v>
+        <v>1384.285557677462</v>
       </c>
       <c r="C6">
         <v>189216000</v>
@@ -1041,7 +1041,7 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>7.756173544294167</v>
+        <v>18.28993153424283</v>
       </c>
       <c r="C7">
         <v>189216000</v>
@@ -1058,7 +1058,7 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>636913.2616740597</v>
+        <v>920436.41855766</v>
       </c>
       <c r="C8">
         <v>189216000</v>
@@ -1075,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.213665202525688</v>
+        <v>4.952746788837904</v>
       </c>
       <c r="C9">
         <v>189216000</v>
@@ -1092,7 +1092,7 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>509986.9581699856</v>
+        <v>774462.6596785105</v>
       </c>
       <c r="C10">
         <v>189216000</v>
@@ -1109,7 +1109,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>82843682.69519751</v>
+        <v>24821819141.12708</v>
       </c>
       <c r="C11">
         <v>189216000</v>
@@ -1126,7 +1126,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>619.2697611404756</v>
+        <v>72308.3967294232</v>
       </c>
       <c r="C12">
         <v>189216000</v>
@@ -1143,7 +1143,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>345.1578975723044</v>
+        <v>1415.729809001654</v>
       </c>
       <c r="C13">
         <v>189216000</v>
@@ -1160,7 +1160,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4130553.812509934</v>
+        <v>7539194.980866863</v>
       </c>
       <c r="C14">
         <v>189216000</v>
@@ -1177,7 +1177,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>555080569.721857</v>
+        <v>1318489918.871246</v>
       </c>
       <c r="C15">
         <v>189216000</v>
@@ -1194,7 +1194,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>67588813.6670128</v>
+        <v>2772274546.544696</v>
       </c>
       <c r="C16">
         <v>189216000</v>
@@ -1238,7 +1238,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>41385485.38452398</v>
+        <v>75485863.09598361</v>
       </c>
       <c r="C2">
         <v>189216000</v>
@@ -1255,7 +1255,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>2.802741823933777</v>
+        <v>446.6195756126315</v>
       </c>
       <c r="C3">
         <v>189216000</v>
@@ -1272,7 +1272,7 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>2167539.729580336</v>
+        <v>5197694.502094707</v>
       </c>
       <c r="C4">
         <v>189216000</v>
@@ -1289,7 +1289,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>8.061550928163408</v>
+        <v>1384.285557677462</v>
       </c>
       <c r="C5">
         <v>189216000</v>
@@ -1306,7 +1306,7 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>7.756173544294167</v>
+        <v>18.28993153424283</v>
       </c>
       <c r="C6">
         <v>189216000</v>
@@ -1323,7 +1323,7 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>636913.2616740597</v>
+        <v>920436.41855766</v>
       </c>
       <c r="C7">
         <v>189216000</v>
@@ -1340,7 +1340,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1.213665202525688</v>
+        <v>4.952746788837904</v>
       </c>
       <c r="C8">
         <v>189216000</v>
@@ -1357,7 +1357,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>509986.9581699856</v>
+        <v>774462.6596785105</v>
       </c>
       <c r="C9">
         <v>189216000</v>
@@ -1374,7 +1374,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>82843682.69519751</v>
+        <v>24821819141.12708</v>
       </c>
       <c r="C10">
         <v>189216000</v>
@@ -1391,7 +1391,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>619.2697611404756</v>
+        <v>72308.3967294232</v>
       </c>
       <c r="C11">
         <v>189216000</v>
@@ -1408,7 +1408,7 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>218444.3749301863</v>
+        <v>305847.0311175386</v>
       </c>
       <c r="C12">
         <v>189216000</v>
@@ -1425,7 +1425,7 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>2389764.583417306</v>
+        <v>3353926.878362501</v>
       </c>
       <c r="C13">
         <v>189216000</v>
@@ -1442,7 +1442,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4130553.812509934</v>
+        <v>7539194.980866863</v>
       </c>
       <c r="C14">
         <v>189216000</v>
@@ -1459,7 +1459,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>555080569.721857</v>
+        <v>1318489918.871246</v>
       </c>
       <c r="C15">
         <v>189216000</v>
@@ -1476,7 +1476,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>67588813.6670128</v>
+        <v>2772274546.544696</v>
       </c>
       <c r="C16">
         <v>189216000</v>
@@ -1493,7 +1493,7 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>345.1578975723044</v>
+        <v>1415.729809001654</v>
       </c>
       <c r="C17">
         <v>189216000</v>
@@ -1564,7 +1564,7 @@
         <v>-598219.5845697329</v>
       </c>
       <c r="F2">
-        <v>0.0003312968705823149</v>
+        <v>0.05730358855852428</v>
       </c>
       <c r="G2">
         <v>0.07486187082790419</v>
@@ -1596,7 +1596,7 @@
         <v>-598219.5845697329</v>
       </c>
       <c r="F3">
-        <v>0.0008781739499554042</v>
+        <v>0.1775425759536857</v>
       </c>
       <c r="G3">
         <v>0.1788901230306882</v>
@@ -1628,7 +1628,7 @@
         <v>-598219.5845697329</v>
       </c>
       <c r="F4">
-        <v>6.773905545110891e-05</v>
+        <v>0.0005477209546546291</v>
       </c>
       <c r="G4">
         <v>0.03022894881925649</v>
@@ -1660,7 +1660,7 @@
         <v>-598219.5845697329</v>
       </c>
       <c r="F5">
-        <v>9605.378060630863</v>
+        <v>3185321.165690387</v>
       </c>
       <c r="G5">
         <v>950152.9679838824</v>
@@ -1692,7 +1692,7 @@
         <v>-598219.5845697329</v>
       </c>
       <c r="F6">
-        <v>0.06479444206176482</v>
+        <v>9.267450901991023</v>
       </c>
       <c r="G6">
         <v>16.67844229494125</v>
@@ -1724,7 +1724,7 @@
         <v>-598219.5845697329</v>
       </c>
       <c r="F7">
-        <v>395.6787292358986</v>
+        <v>833.2423458417898</v>
       </c>
       <c r="G7">
         <v>138874.7449751976</v>
@@ -1756,7 +1756,7 @@
         <v>-598219.5845697329</v>
       </c>
       <c r="F8">
-        <v>5404.828783494361</v>
+        <v>352602.4399743445</v>
       </c>
       <c r="G8">
         <v>2365011.745054289</v>
@@ -1788,7 +1788,7 @@
         <v>-598219.5845697329</v>
       </c>
       <c r="F9">
-        <v>0.02662297091110765</v>
+        <v>0.1640511407490939</v>
       </c>
       <c r="G9">
         <v>18.60486761438206</v>
@@ -1841,7 +1841,7 @@
         <v>121.0744847559724</v>
       </c>
       <c r="C2">
-        <v>1138406.60915457</v>
+        <v>4168561.381668941</v>
       </c>
       <c r="D2">
         <v>189216000</v>
@@ -1861,7 +1861,7 @@
         <v>0.0004482330424361773</v>
       </c>
       <c r="C3">
-        <v>3.94619268358666</v>
+        <v>14.47995067353532</v>
       </c>
       <c r="D3">
         <v>189216000</v>
@@ -1881,7 +1881,7 @@
         <v>37.17892860669366</v>
       </c>
       <c r="C4">
-        <v>320892.3685171635</v>
+        <v>604415.5254007638</v>
       </c>
       <c r="D4">
         <v>189216000</v>
@@ -1901,7 +1901,7 @@
         <v>29.04191211145895</v>
       </c>
       <c r="C5">
-        <v>263130.7052225845</v>
+        <v>527606.4067311095</v>
       </c>
       <c r="D5">
         <v>189216000</v>
@@ -1921,7 +1921,7 @@
         <v>12.96792011185074</v>
       </c>
       <c r="C6">
-        <v>108217.0539794551</v>
+        <v>195619.7101668073</v>
       </c>
       <c r="D6">
         <v>189216000</v>
@@ -1941,7 +1941,7 @@
         <v>142.061722936549</v>
       </c>
       <c r="C7">
-        <v>1182239.938456639</v>
+        <v>2146402.233401834</v>
       </c>
       <c r="D7">
         <v>189216000</v>
@@ -1991,7 +1991,7 @@
         <v>12.96792011185074</v>
       </c>
       <c r="C2">
-        <v>108217.0539794551</v>
+        <v>195619.7101668073</v>
       </c>
       <c r="D2">
         <v>189216000</v>
@@ -2011,7 +2011,7 @@
         <v>142.061722936549</v>
       </c>
       <c r="C3">
-        <v>1182239.938456639</v>
+        <v>2146402.233401834</v>
       </c>
       <c r="D3">
         <v>189216000</v>

--- a/generated_files/Simplified models coefficients enhanced - symbolic - thresholds.xlsx
+++ b/generated_files/Simplified models coefficients enhanced - symbolic - thresholds.xlsx
@@ -510,13 +510,13 @@
         <v>0.02559292832107414</v>
       </c>
       <c r="C2">
-        <v>0.09155427408752465</v>
+        <v>0.01255755064376889</v>
       </c>
       <c r="D2">
         <v>0.05730700110751875</v>
       </c>
       <c r="E2">
-        <v>0.07486187082790419</v>
+        <v>0.3118520411591714</v>
       </c>
       <c r="F2">
         <v>189216000</v>
@@ -536,13 +536,13 @@
         <v>0.07931140281402195</v>
       </c>
       <c r="C3">
-        <v>0.5877191892266991</v>
+        <v>0.02987908641986995</v>
       </c>
       <c r="D3">
         <v>0.1775919735280712</v>
       </c>
       <c r="E3">
-        <v>0.1788901230306882</v>
+        <v>1.852410431451176</v>
       </c>
       <c r="F3">
         <v>189216000</v>
@@ -562,13 +562,13 @@
         <v>0.0002625112864950772</v>
       </c>
       <c r="C4">
-        <v>0.3317846299634177</v>
+        <v>0.005035438053739419</v>
       </c>
       <c r="D4">
         <v>0.0005878082569207996</v>
       </c>
       <c r="E4">
-        <v>0.03022894881925649</v>
+        <v>1.010476524548291</v>
       </c>
       <c r="F4">
         <v>189216000</v>
@@ -588,13 +588,13 @@
         <v>1422709.490037483</v>
       </c>
       <c r="C5">
-        <v>3802952.421918105</v>
+        <v>159348.5570059229</v>
       </c>
       <c r="D5">
         <v>3185693.06717902</v>
       </c>
       <c r="E5">
-        <v>950152.9679838824</v>
+        <v>11880964.56272043</v>
       </c>
       <c r="F5">
         <v>189216000</v>
@@ -614,13 +614,13 @@
         <v>4.140346717483768</v>
       </c>
       <c r="C6">
-        <v>64.10861478754916</v>
+        <v>2.67079446507371</v>
       </c>
       <c r="D6">
         <v>9.270953716108231</v>
       </c>
       <c r="E6">
-        <v>16.67844229494125</v>
+        <v>200.9919032623676</v>
       </c>
       <c r="F6">
         <v>189216000</v>
@@ -640,13 +640,13 @@
         <v>390.0349302363251</v>
       </c>
       <c r="C7">
-        <v>543182.023661281</v>
+        <v>22499.31293453972</v>
       </c>
       <c r="D7">
         <v>873.3557918270282</v>
       </c>
       <c r="E7">
-        <v>138874.7449751976</v>
+        <v>1700922.877155422</v>
       </c>
       <c r="F7">
         <v>189216000</v>
@@ -666,13 +666,13 @@
         <v>158029.110066363</v>
       </c>
       <c r="C8">
-        <v>12452115.53792153</v>
+        <v>362012.8382486775</v>
       </c>
       <c r="D8">
         <v>353854.5598213583</v>
       </c>
       <c r="E8">
-        <v>2365011.745054289</v>
+        <v>38635319.84407286</v>
       </c>
       <c r="F8">
         <v>189216000</v>
@@ -692,13 +692,13 @@
         <v>0.07418371771983767</v>
       </c>
       <c r="C9">
-        <v>95.93052443395332</v>
+        <v>6.021377963891995</v>
       </c>
       <c r="D9">
         <v>0.1661101981061685</v>
       </c>
       <c r="E9">
-        <v>18.60486761438206</v>
+        <v>288.332307024566</v>
       </c>
       <c r="F9">
         <v>189216000</v>
@@ -742,7 +742,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>75485863.09598361</v>
+        <v>127312384.3047819</v>
       </c>
       <c r="C2">
         <v>189216000</v>
@@ -759,7 +759,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>446.6195756126315</v>
+        <v>446.8691323100741</v>
       </c>
       <c r="C3">
         <v>189216000</v>
@@ -776,7 +776,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1384.285557677462</v>
+        <v>1386.047817271135</v>
       </c>
       <c r="C4">
         <v>189216000</v>
@@ -793,7 +793,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1384.285557677462</v>
+        <v>1386.047817271135</v>
       </c>
       <c r="C5">
         <v>189216000</v>
@@ -810,7 +810,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>4.952746788837904</v>
+        <v>5.984972502389653</v>
       </c>
       <c r="C6">
         <v>189216000</v>
@@ -827,7 +827,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>24821819141.12708</v>
+        <v>24833329564.69501</v>
       </c>
       <c r="C7">
         <v>189216000</v>
@@ -844,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>72308.3967294232</v>
+        <v>72502.48350757493</v>
       </c>
       <c r="C8">
         <v>189216000</v>
@@ -861,7 +861,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>1415.729809001654</v>
+        <v>1699.759686252404</v>
       </c>
       <c r="C9">
         <v>189216000</v>
@@ -878,7 +878,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>7539194.980866863</v>
+        <v>9184071.528143952</v>
       </c>
       <c r="C10">
         <v>189216000</v>
@@ -895,7 +895,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>1318489918.871246</v>
+        <v>2007919005.399402</v>
       </c>
       <c r="C11">
         <v>189216000</v>
@@ -912,7 +912,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>2772274546.544696</v>
+        <v>2810468106.605691</v>
       </c>
       <c r="C12">
         <v>189216000</v>
@@ -956,7 +956,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>75485863.09598361</v>
+        <v>127312384.3047819</v>
       </c>
       <c r="C2">
         <v>189216000</v>
@@ -973,7 +973,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>446.6195756126315</v>
+        <v>446.8691323100741</v>
       </c>
       <c r="C3">
         <v>189216000</v>
@@ -990,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1384.285557677462</v>
+        <v>1386.047817271135</v>
       </c>
       <c r="C4">
         <v>189216000</v>
@@ -1007,7 +1007,7 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>5197694.502094707</v>
+        <v>8197984.739906557</v>
       </c>
       <c r="C5">
         <v>189216000</v>
@@ -1024,7 +1024,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1384.285557677462</v>
+        <v>1386.047817271135</v>
       </c>
       <c r="C6">
         <v>189216000</v>
@@ -1041,7 +1041,7 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>18.28993153424283</v>
+        <v>29.27996624294174</v>
       </c>
       <c r="C7">
         <v>189216000</v>
@@ -1058,7 +1058,7 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>920436.41855766</v>
+        <v>1829489.747303196</v>
       </c>
       <c r="C8">
         <v>189216000</v>
@@ -1075,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>4.952746788837904</v>
+        <v>5.984972502389653</v>
       </c>
       <c r="C9">
         <v>189216000</v>
@@ -1092,7 +1092,7 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>774462.6596785105</v>
+        <v>1492462.443014553</v>
       </c>
       <c r="C10">
         <v>189216000</v>
@@ -1109,7 +1109,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>24821819141.12708</v>
+        <v>24833329564.69501</v>
       </c>
       <c r="C11">
         <v>189216000</v>
@@ -1126,7 +1126,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>72308.3967294232</v>
+        <v>72502.48350757493</v>
       </c>
       <c r="C12">
         <v>189216000</v>
@@ -1143,7 +1143,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>1415.729809001654</v>
+        <v>1699.759686252404</v>
       </c>
       <c r="C13">
         <v>189216000</v>
@@ -1160,7 +1160,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7539194.980866863</v>
+        <v>9184071.528143952</v>
       </c>
       <c r="C14">
         <v>189216000</v>
@@ -1177,7 +1177,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>1318489918.871246</v>
+        <v>2007919005.399402</v>
       </c>
       <c r="C15">
         <v>189216000</v>
@@ -1194,7 +1194,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>2772274546.544696</v>
+        <v>2810468106.605691</v>
       </c>
       <c r="C16">
         <v>189216000</v>
@@ -1238,7 +1238,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>75485863.09598361</v>
+        <v>127312384.3047819</v>
       </c>
       <c r="C2">
         <v>189216000</v>
@@ -1255,7 +1255,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>446.6195756126315</v>
+        <v>446.8691323100741</v>
       </c>
       <c r="C3">
         <v>189216000</v>
@@ -1272,7 +1272,7 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>5197694.502094707</v>
+        <v>8197984.739906557</v>
       </c>
       <c r="C4">
         <v>189216000</v>
@@ -1289,7 +1289,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1384.285557677462</v>
+        <v>1386.047817271135</v>
       </c>
       <c r="C5">
         <v>189216000</v>
@@ -1306,7 +1306,7 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>18.28993153424283</v>
+        <v>29.27996624294174</v>
       </c>
       <c r="C6">
         <v>189216000</v>
@@ -1323,7 +1323,7 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>920436.41855766</v>
+        <v>1829489.747303196</v>
       </c>
       <c r="C7">
         <v>189216000</v>
@@ -1340,7 +1340,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>4.952746788837904</v>
+        <v>5.984972502389653</v>
       </c>
       <c r="C8">
         <v>189216000</v>
@@ -1357,7 +1357,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>774462.6596785105</v>
+        <v>1492462.443014553</v>
       </c>
       <c r="C9">
         <v>189216000</v>
@@ -1374,7 +1374,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>24821819141.12708</v>
+        <v>24833329564.69501</v>
       </c>
       <c r="C10">
         <v>189216000</v>
@@ -1391,7 +1391,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>72308.3967294232</v>
+        <v>72502.48350757493</v>
       </c>
       <c r="C11">
         <v>189216000</v>
@@ -1408,7 +1408,7 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>305847.0311175386</v>
+        <v>622558.830598896</v>
       </c>
       <c r="C12">
         <v>189216000</v>
@@ -1425,7 +1425,7 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>3353926.878362501</v>
+        <v>6823686.348502119</v>
       </c>
       <c r="C13">
         <v>189216000</v>
@@ -1442,7 +1442,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7539194.980866863</v>
+        <v>9184071.528143952</v>
       </c>
       <c r="C14">
         <v>189216000</v>
@@ -1459,7 +1459,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>1318489918.871246</v>
+        <v>2007919005.399402</v>
       </c>
       <c r="C15">
         <v>189216000</v>
@@ -1476,7 +1476,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>2772274546.544696</v>
+        <v>2810468106.605691</v>
       </c>
       <c r="C16">
         <v>189216000</v>
@@ -1493,7 +1493,7 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>1415.729809001654</v>
+        <v>1699.759686252404</v>
       </c>
       <c r="C17">
         <v>189216000</v>
@@ -1558,7 +1558,7 @@
         <v>4.014763522915493e-10</v>
       </c>
       <c r="D2">
-        <v>0.09155427408752465</v>
+        <v>0.01255755064376889</v>
       </c>
       <c r="E2">
         <v>-598219.5845697329</v>
@@ -1567,7 +1567,7 @@
         <v>0.05730358855852428</v>
       </c>
       <c r="G2">
-        <v>0.07486187082790419</v>
+        <v>0.3118520411591714</v>
       </c>
       <c r="H2">
         <v>189216000</v>
@@ -1590,7 +1590,7 @@
         <v>5.81147933946907e-09</v>
       </c>
       <c r="D3">
-        <v>0.5877191892266991</v>
+        <v>0.02987908641986995</v>
       </c>
       <c r="E3">
         <v>-598219.5845697329</v>
@@ -1599,7 +1599,7 @@
         <v>0.1775425759536857</v>
       </c>
       <c r="G3">
-        <v>0.1788901230306882</v>
+        <v>1.852410431451176</v>
       </c>
       <c r="H3">
         <v>189216000</v>
@@ -1622,7 +1622,7 @@
         <v>4.716153207784763e-09</v>
       </c>
       <c r="D4">
-        <v>0.3317846299634177</v>
+        <v>0.005035438053739419</v>
       </c>
       <c r="E4">
         <v>-598219.5845697329</v>
@@ -1631,7 +1631,7 @@
         <v>0.0005477209546546291</v>
       </c>
       <c r="G4">
-        <v>0.03022894881925649</v>
+        <v>1.010476524548291</v>
       </c>
       <c r="H4">
         <v>189216000</v>
@@ -1654,7 +1654,7 @@
         <v>0.04375311630967314</v>
       </c>
       <c r="D5">
-        <v>3802952.421918105</v>
+        <v>159348.5570059229</v>
       </c>
       <c r="E5">
         <v>-598219.5845697329</v>
@@ -1663,7 +1663,7 @@
         <v>3185321.165690387</v>
       </c>
       <c r="G5">
-        <v>950152.9679838824</v>
+        <v>11880964.56272043</v>
       </c>
       <c r="H5">
         <v>189216000</v>
@@ -1686,7 +1686,7 @@
         <v>4.120957784953104e-07</v>
       </c>
       <c r="D6">
-        <v>64.10861478754916</v>
+        <v>2.67079446507371</v>
       </c>
       <c r="E6">
         <v>-598219.5845697329</v>
@@ -1695,7 +1695,7 @@
         <v>9.267450901991023</v>
       </c>
       <c r="G6">
-        <v>16.67844229494125</v>
+        <v>200.9919032623676</v>
       </c>
       <c r="H6">
         <v>189216000</v>
@@ -1718,7 +1718,7 @@
         <v>0.004719228939439808</v>
       </c>
       <c r="D7">
-        <v>543182.023661281</v>
+        <v>22499.31293453972</v>
       </c>
       <c r="E7">
         <v>-598219.5845697329</v>
@@ -1727,7 +1727,7 @@
         <v>833.2423458417898</v>
       </c>
       <c r="G7">
-        <v>138874.7449751976</v>
+        <v>1700922.877155422</v>
       </c>
       <c r="H7">
         <v>189216000</v>
@@ -1750,7 +1750,7 @@
         <v>0.1473082172957391</v>
       </c>
       <c r="D8">
-        <v>12452115.53792153</v>
+        <v>362012.8382486775</v>
       </c>
       <c r="E8">
         <v>-598219.5845697329</v>
@@ -1759,7 +1759,7 @@
         <v>352602.4399743445</v>
       </c>
       <c r="G8">
-        <v>2365011.745054289</v>
+        <v>38635319.84407286</v>
       </c>
       <c r="H8">
         <v>189216000</v>
@@ -1782,7 +1782,7 @@
         <v>2.422420420087774e-07</v>
       </c>
       <c r="D9">
-        <v>95.93052443395332</v>
+        <v>6.021377963891995</v>
       </c>
       <c r="E9">
         <v>-598219.5845697329</v>
@@ -1791,7 +1791,7 @@
         <v>0.1640511407490939</v>
       </c>
       <c r="G9">
-        <v>18.60486761438206</v>
+        <v>288.332307024566</v>
       </c>
       <c r="H9">
         <v>189216000</v>
@@ -1841,7 +1841,7 @@
         <v>121.0744847559724</v>
       </c>
       <c r="C2">
-        <v>4168561.381668941</v>
+        <v>7168851.619480792</v>
       </c>
       <c r="D2">
         <v>189216000</v>
@@ -1861,7 +1861,7 @@
         <v>0.0004482330424361773</v>
       </c>
       <c r="C3">
-        <v>14.47995067353532</v>
+        <v>25.46998538223423</v>
       </c>
       <c r="D3">
         <v>189216000</v>
@@ -1881,7 +1881,7 @@
         <v>37.17892860669366</v>
       </c>
       <c r="C4">
-        <v>604415.5254007638</v>
+        <v>1513468.8541463</v>
       </c>
       <c r="D4">
         <v>189216000</v>
@@ -1901,7 +1901,7 @@
         <v>29.04191211145895</v>
       </c>
       <c r="C5">
-        <v>527606.4067311095</v>
+        <v>1245606.190067152</v>
       </c>
       <c r="D5">
         <v>189216000</v>
@@ -1921,7 +1921,7 @@
         <v>12.96792011185074</v>
       </c>
       <c r="C6">
-        <v>195619.7101668073</v>
+        <v>512331.5096481647</v>
       </c>
       <c r="D6">
         <v>189216000</v>
@@ -1941,7 +1941,7 @@
         <v>142.061722936549</v>
       </c>
       <c r="C7">
-        <v>2146402.233401834</v>
+        <v>5616161.703541452</v>
       </c>
       <c r="D7">
         <v>189216000</v>
@@ -1991,7 +1991,7 @@
         <v>12.96792011185074</v>
       </c>
       <c r="C2">
-        <v>195619.7101668073</v>
+        <v>512331.5096481647</v>
       </c>
       <c r="D2">
         <v>189216000</v>
@@ -2011,7 +2011,7 @@
         <v>142.061722936549</v>
       </c>
       <c r="C3">
-        <v>2146402.233401834</v>
+        <v>5616161.703541452</v>
       </c>
       <c r="D3">
         <v>189216000</v>

--- a/generated_files/Simplified models coefficients enhanced - symbolic - thresholds.xlsx
+++ b/generated_files/Simplified models coefficients enhanced - symbolic - thresholds.xlsx
@@ -507,13 +507,13 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02559292832107414</v>
+        <v>0.000149479016840288</v>
       </c>
       <c r="C2">
         <v>0.01255755064376889</v>
       </c>
       <c r="D2">
-        <v>0.05730700110751875</v>
+        <v>0.0003347094195767931</v>
       </c>
       <c r="E2">
         <v>0.3118520411591714</v>
@@ -533,13 +533,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.07931140281402195</v>
+        <v>0.000414247318413793</v>
       </c>
       <c r="C3">
         <v>0.02987908641986995</v>
       </c>
       <c r="D3">
-        <v>0.1775919735280712</v>
+        <v>0.0009275715243408913</v>
       </c>
       <c r="E3">
         <v>1.852410431451176</v>
@@ -559,13 +559,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0002625112864950772</v>
+        <v>4.815453942535426e-05</v>
       </c>
       <c r="C4">
         <v>0.005035438053739419</v>
       </c>
       <c r="D4">
-        <v>0.0005878082569207996</v>
+        <v>0.0001078263577172794</v>
       </c>
       <c r="E4">
         <v>1.010476524548291</v>
@@ -585,13 +585,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1422709.490037483</v>
+        <v>4455.787171004262</v>
       </c>
       <c r="C5">
         <v>159348.5570059229</v>
       </c>
       <c r="D5">
-        <v>3185693.06717902</v>
+        <v>9977.279549263085</v>
       </c>
       <c r="E5">
         <v>11880964.56272043</v>
@@ -611,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>4.140346717483768</v>
+        <v>0.03050110367204704</v>
       </c>
       <c r="C6">
         <v>2.67079446507371</v>
       </c>
       <c r="D6">
-        <v>9.270953716108231</v>
+        <v>0.06829725617897495</v>
       </c>
       <c r="E6">
         <v>200.9919032623676</v>
@@ -637,13 +637,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>390.0349302363251</v>
+        <v>194.6219081049807</v>
       </c>
       <c r="C7">
         <v>22499.31293453972</v>
       </c>
       <c r="D7">
-        <v>873.3557918270282</v>
+        <v>435.792175221137</v>
       </c>
       <c r="E7">
         <v>1700922.877155422</v>
@@ -663,13 +663,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>158029.110066363</v>
+        <v>2972.949305408946</v>
       </c>
       <c r="C8">
         <v>362012.8382486775</v>
       </c>
       <c r="D8">
-        <v>353854.5598213583</v>
+        <v>6656.948630508143</v>
       </c>
       <c r="E8">
         <v>38635319.84407286</v>
@@ -689,13 +689,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.07418371771983767</v>
+        <v>0.01280920444944207</v>
       </c>
       <c r="C9">
         <v>6.021377963891995</v>
       </c>
       <c r="D9">
-        <v>0.1661101981061685</v>
+        <v>0.02868202826818225</v>
       </c>
       <c r="E9">
         <v>288.332307024566</v>
@@ -742,7 +742,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>127312384.3047819</v>
+        <v>93212006.59332223</v>
       </c>
       <c r="C2">
         <v>189216000</v>
@@ -759,7 +759,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>446.8691323100741</v>
+        <v>3.052298521376265</v>
       </c>
       <c r="C3">
         <v>189216000</v>
@@ -776,7 +776,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1386.047817271135</v>
+        <v>9.823810521835886</v>
       </c>
       <c r="C4">
         <v>189216000</v>
@@ -793,7 +793,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1386.047817271135</v>
+        <v>9.823810521835886</v>
       </c>
       <c r="C5">
         <v>189216000</v>
@@ -810,7 +810,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>5.984972502389653</v>
+        <v>2.245890916077438</v>
       </c>
       <c r="C6">
         <v>189216000</v>
@@ -827,7 +827,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>24833329564.69501</v>
+        <v>94354106.26312643</v>
       </c>
       <c r="C7">
         <v>189216000</v>
@@ -844,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>72502.48350757493</v>
+        <v>813.3565392922075</v>
       </c>
       <c r="C8">
         <v>189216000</v>
@@ -861,7 +861,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>1699.759686252404</v>
+        <v>629.187774823055</v>
       </c>
       <c r="C9">
         <v>189216000</v>
@@ -878,7 +878,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>9184071.528143952</v>
+        <v>5775430.359787021</v>
       </c>
       <c r="C10">
         <v>189216000</v>
@@ -895,7 +895,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>2007919005.399402</v>
+        <v>1244509656.250013</v>
       </c>
       <c r="C11">
         <v>189216000</v>
@@ -912,7 +912,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>2810468106.605691</v>
+        <v>105782373.7280074</v>
       </c>
       <c r="C12">
         <v>189216000</v>
@@ -956,7 +956,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>127312384.3047819</v>
+        <v>93212006.59332223</v>
       </c>
       <c r="C2">
         <v>189216000</v>
@@ -973,7 +973,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>446.8691323100741</v>
+        <v>3.052298521376265</v>
       </c>
       <c r="C3">
         <v>189216000</v>
@@ -990,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1386.047817271135</v>
+        <v>9.823810521835886</v>
       </c>
       <c r="C4">
         <v>189216000</v>
@@ -1007,7 +1007,7 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>8197984.739906557</v>
+        <v>5167829.967392186</v>
       </c>
       <c r="C5">
         <v>189216000</v>
@@ -1024,7 +1024,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1386.047817271135</v>
+        <v>9.823810521835886</v>
       </c>
       <c r="C6">
         <v>189216000</v>
@@ -1041,7 +1041,7 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>29.27996624294174</v>
+        <v>18.74620825299308</v>
       </c>
       <c r="C7">
         <v>189216000</v>
@@ -1058,7 +1058,7 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>1829489.747303196</v>
+        <v>1545966.590419595</v>
       </c>
       <c r="C8">
         <v>189216000</v>
@@ -1075,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>5.984972502389653</v>
+        <v>2.245890916077438</v>
       </c>
       <c r="C9">
         <v>189216000</v>
@@ -1092,7 +1092,7 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>1492462.443014553</v>
+        <v>1227986.741506028</v>
       </c>
       <c r="C10">
         <v>189216000</v>
@@ -1109,7 +1109,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>24833329564.69501</v>
+        <v>94354106.26312643</v>
       </c>
       <c r="C11">
         <v>189216000</v>
@@ -1126,7 +1126,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>72502.48350757493</v>
+        <v>813.3565392922075</v>
       </c>
       <c r="C12">
         <v>189216000</v>
@@ -1143,7 +1143,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>1699.759686252404</v>
+        <v>629.187774823055</v>
       </c>
       <c r="C13">
         <v>189216000</v>
@@ -1160,7 +1160,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9184071.528143952</v>
+        <v>5775430.359787021</v>
       </c>
       <c r="C14">
         <v>189216000</v>
@@ -1177,7 +1177,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>2007919005.399402</v>
+        <v>1244509656.250013</v>
       </c>
       <c r="C15">
         <v>189216000</v>
@@ -1194,7 +1194,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>2810468106.605691</v>
+        <v>105782373.7280074</v>
       </c>
       <c r="C16">
         <v>189216000</v>
@@ -1238,7 +1238,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>127312384.3047819</v>
+        <v>93212006.59332223</v>
       </c>
       <c r="C2">
         <v>189216000</v>
@@ -1255,7 +1255,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>446.8691323100741</v>
+        <v>3.052298521376265</v>
       </c>
       <c r="C3">
         <v>189216000</v>
@@ -1272,7 +1272,7 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>8197984.739906557</v>
+        <v>5167829.967392186</v>
       </c>
       <c r="C4">
         <v>189216000</v>
@@ -1289,7 +1289,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1386.047817271135</v>
+        <v>9.823810521835886</v>
       </c>
       <c r="C5">
         <v>189216000</v>
@@ -1306,7 +1306,7 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>29.27996624294174</v>
+        <v>18.74620825299308</v>
       </c>
       <c r="C6">
         <v>189216000</v>
@@ -1323,7 +1323,7 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>1829489.747303196</v>
+        <v>1545966.590419595</v>
       </c>
       <c r="C7">
         <v>189216000</v>
@@ -1340,7 +1340,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>5.984972502389653</v>
+        <v>2.245890916077438</v>
       </c>
       <c r="C8">
         <v>189216000</v>
@@ -1357,7 +1357,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>1492462.443014553</v>
+        <v>1227986.741506028</v>
       </c>
       <c r="C9">
         <v>189216000</v>
@@ -1374,7 +1374,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>24833329564.69501</v>
+        <v>94354106.26312643</v>
       </c>
       <c r="C10">
         <v>189216000</v>
@@ -1391,7 +1391,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>72502.48350757493</v>
+        <v>813.3565392922075</v>
       </c>
       <c r="C11">
         <v>189216000</v>
@@ -1408,7 +1408,7 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>622558.830598896</v>
+        <v>535156.1744115439</v>
       </c>
       <c r="C12">
         <v>189216000</v>
@@ -1425,7 +1425,7 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>6823686.348502119</v>
+        <v>5859524.053556924</v>
       </c>
       <c r="C13">
         <v>189216000</v>
@@ -1442,7 +1442,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9184071.528143952</v>
+        <v>5775430.359787021</v>
       </c>
       <c r="C14">
         <v>189216000</v>
@@ -1459,7 +1459,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>2007919005.399402</v>
+        <v>1244509656.250013</v>
       </c>
       <c r="C15">
         <v>189216000</v>
@@ -1476,7 +1476,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>2810468106.605691</v>
+        <v>105782373.7280074</v>
       </c>
       <c r="C16">
         <v>189216000</v>
@@ -1493,7 +1493,7 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>1699.759686252404</v>
+        <v>629.187774823055</v>
       </c>
       <c r="C17">
         <v>189216000</v>
@@ -1564,7 +1564,7 @@
         <v>-598219.5845697329</v>
       </c>
       <c r="F2">
-        <v>0.05730358855852428</v>
+        <v>0.0003312968705823149</v>
       </c>
       <c r="G2">
         <v>0.3118520411591714</v>
@@ -1596,7 +1596,7 @@
         <v>-598219.5845697329</v>
       </c>
       <c r="F3">
-        <v>0.1775425759536857</v>
+        <v>0.0008781739499554042</v>
       </c>
       <c r="G3">
         <v>1.852410431451176</v>
@@ -1628,7 +1628,7 @@
         <v>-598219.5845697329</v>
       </c>
       <c r="F4">
-        <v>0.0005477209546546291</v>
+        <v>6.773905545110891e-05</v>
       </c>
       <c r="G4">
         <v>1.010476524548291</v>
@@ -1660,7 +1660,7 @@
         <v>-598219.5845697329</v>
       </c>
       <c r="F5">
-        <v>3185321.165690387</v>
+        <v>9605.378060630863</v>
       </c>
       <c r="G5">
         <v>11880964.56272043</v>
@@ -1692,7 +1692,7 @@
         <v>-598219.5845697329</v>
       </c>
       <c r="F6">
-        <v>9.267450901991023</v>
+        <v>0.06479444206176482</v>
       </c>
       <c r="G6">
         <v>200.9919032623676</v>
@@ -1724,7 +1724,7 @@
         <v>-598219.5845697329</v>
       </c>
       <c r="F7">
-        <v>833.2423458417898</v>
+        <v>395.6787292358986</v>
       </c>
       <c r="G7">
         <v>1700922.877155422</v>
@@ -1756,7 +1756,7 @@
         <v>-598219.5845697329</v>
       </c>
       <c r="F8">
-        <v>352602.4399743445</v>
+        <v>5404.828783494361</v>
       </c>
       <c r="G8">
         <v>38635319.84407286</v>
@@ -1788,7 +1788,7 @@
         <v>-598219.5845697329</v>
       </c>
       <c r="F9">
-        <v>0.1640511407490939</v>
+        <v>0.02662297091110765</v>
       </c>
       <c r="G9">
         <v>288.332307024566</v>
@@ -1841,7 +1841,7 @@
         <v>121.0744847559724</v>
       </c>
       <c r="C2">
-        <v>7168851.619480792</v>
+        <v>4138696.84696642</v>
       </c>
       <c r="D2">
         <v>189216000</v>
@@ -1861,7 +1861,7 @@
         <v>0.0004482330424361773</v>
       </c>
       <c r="C3">
-        <v>25.46998538223423</v>
+        <v>14.93622739228557</v>
       </c>
       <c r="D3">
         <v>189216000</v>
@@ -1881,7 +1881,7 @@
         <v>37.17892860669366</v>
       </c>
       <c r="C4">
-        <v>1513468.8541463</v>
+        <v>1229945.697262699</v>
       </c>
       <c r="D4">
         <v>189216000</v>
@@ -1901,7 +1901,7 @@
         <v>29.04191211145895</v>
       </c>
       <c r="C5">
-        <v>1245606.190067152</v>
+        <v>981130.4885586266</v>
       </c>
       <c r="D5">
         <v>189216000</v>
@@ -1921,7 +1921,7 @@
         <v>12.96792011185074</v>
       </c>
       <c r="C6">
-        <v>512331.5096481647</v>
+        <v>424928.8534608125</v>
       </c>
       <c r="D6">
         <v>189216000</v>
@@ -1941,7 +1941,7 @@
         <v>142.061722936549</v>
       </c>
       <c r="C7">
-        <v>5616161.703541452</v>
+        <v>4651999.408596257</v>
       </c>
       <c r="D7">
         <v>189216000</v>
@@ -1991,7 +1991,7 @@
         <v>12.96792011185074</v>
       </c>
       <c r="C2">
-        <v>512331.5096481647</v>
+        <v>424928.8534608125</v>
       </c>
       <c r="D2">
         <v>189216000</v>
@@ -2011,7 +2011,7 @@
         <v>142.061722936549</v>
       </c>
       <c r="C3">
-        <v>5616161.703541452</v>
+        <v>4651999.408596257</v>
       </c>
       <c r="D3">
         <v>189216000</v>

--- a/generated_files/Simplified models coefficients enhanced - symbolic - thresholds.xlsx
+++ b/generated_files/Simplified models coefficients enhanced - symbolic - thresholds.xlsx
@@ -510,13 +510,13 @@
         <v>0.000149479016840288</v>
       </c>
       <c r="C2">
-        <v>0.01255755064376889</v>
+        <v>0.0401843477973273</v>
       </c>
       <c r="D2">
-        <v>0.0003347094195767931</v>
+        <v>0.0002789245163139943</v>
       </c>
       <c r="E2">
-        <v>0.3118520411591714</v>
+        <v>0.06238489235658682</v>
       </c>
       <c r="F2">
         <v>189216000</v>
@@ -536,13 +536,13 @@
         <v>0.000414247318413793</v>
       </c>
       <c r="C3">
-        <v>0.02987908641986995</v>
+        <v>0.2136165247349333</v>
       </c>
       <c r="D3">
-        <v>0.0009275715243408913</v>
+        <v>0.000772976270284076</v>
       </c>
       <c r="E3">
-        <v>1.852410431451176</v>
+        <v>0.1490751025255735</v>
       </c>
       <c r="F3">
         <v>189216000</v>
@@ -562,13 +562,13 @@
         <v>4.815453942535426e-05</v>
       </c>
       <c r="C4">
-        <v>0.005035438053739419</v>
+        <v>0.1058031063533843</v>
       </c>
       <c r="D4">
-        <v>0.0001078263577172794</v>
+        <v>8.985529809773284e-05</v>
       </c>
       <c r="E4">
-        <v>1.010476524548291</v>
+        <v>0.02519079068271374</v>
       </c>
       <c r="F4">
         <v>189216000</v>
@@ -588,13 +588,13 @@
         <v>4455.787171004262</v>
       </c>
       <c r="C5">
-        <v>159348.5570059229</v>
+        <v>1316065.921744288</v>
       </c>
       <c r="D5">
-        <v>9977.279549263085</v>
+        <v>8314.399624385904</v>
       </c>
       <c r="E5">
-        <v>11880964.56272043</v>
+        <v>791794.1399865686</v>
       </c>
       <c r="F5">
         <v>189216000</v>
@@ -614,13 +614,13 @@
         <v>0.03050110367204704</v>
       </c>
       <c r="C6">
-        <v>2.67079446507371</v>
+        <v>24.37743487290656</v>
       </c>
       <c r="D6">
-        <v>0.06829725617897495</v>
+        <v>0.05691438014914579</v>
       </c>
       <c r="E6">
-        <v>200.9919032623676</v>
+        <v>13.89870191245105</v>
       </c>
       <c r="F6">
         <v>189216000</v>
@@ -640,13 +640,13 @@
         <v>194.6219081049807</v>
       </c>
       <c r="C7">
-        <v>22499.31293453972</v>
+        <v>208096.4728680373</v>
       </c>
       <c r="D7">
-        <v>435.792175221137</v>
+        <v>363.1601460176142</v>
       </c>
       <c r="E7">
-        <v>1700922.877155422</v>
+        <v>115728.954145998</v>
       </c>
       <c r="F7">
         <v>189216000</v>
@@ -666,13 +666,13 @@
         <v>2972.949305408946</v>
       </c>
       <c r="C8">
-        <v>362012.8382486775</v>
+        <v>4252913.276085217</v>
       </c>
       <c r="D8">
-        <v>6656.948630508143</v>
+        <v>5547.457192090119</v>
       </c>
       <c r="E8">
-        <v>38635319.84407286</v>
+        <v>1970843.120878574</v>
       </c>
       <c r="F8">
         <v>189216000</v>
@@ -692,13 +692,13 @@
         <v>0.01280920444944207</v>
       </c>
       <c r="C9">
-        <v>6.021377963891995</v>
+        <v>34.57853657959976</v>
       </c>
       <c r="D9">
-        <v>0.02868202826818225</v>
+        <v>0.02390169022348521</v>
       </c>
       <c r="E9">
-        <v>288.332307024566</v>
+        <v>15.50405634531839</v>
       </c>
       <c r="F9">
         <v>189216000</v>
@@ -742,7 +742,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>93212006.59332223</v>
+        <v>26793512.58399666</v>
       </c>
       <c r="C2">
         <v>189216000</v>
@@ -759,7 +759,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>3.052298521376265</v>
+        <v>2.405388276264408</v>
       </c>
       <c r="C3">
         <v>189216000</v>
@@ -776,7 +776,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>9.823810521835886</v>
+        <v>6.73523482439196</v>
       </c>
       <c r="C4">
         <v>189216000</v>
@@ -793,7 +793,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>9.823810521835886</v>
+        <v>6.73523482439196</v>
       </c>
       <c r="C5">
         <v>189216000</v>
@@ -810,7 +810,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>2.245890916077438</v>
+        <v>0.8748130489149026</v>
       </c>
       <c r="C6">
         <v>189216000</v>
@@ -827,7 +827,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>94354106.26312643</v>
+        <v>70339523.72893846</v>
       </c>
       <c r="C7">
         <v>189216000</v>
@@ -844,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>813.3565392922075</v>
+        <v>508.616671934712</v>
       </c>
       <c r="C8">
         <v>189216000</v>
@@ -861,7 +861,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>629.187774823055</v>
+        <v>251.3412006799138</v>
       </c>
       <c r="C9">
         <v>189216000</v>
@@ -878,7 +878,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>5775430.359787021</v>
+        <v>3335430.148482942</v>
       </c>
       <c r="C10">
         <v>189216000</v>
@@ -895,7 +895,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>1244509656.250013</v>
+        <v>360528197.7244558</v>
       </c>
       <c r="C11">
         <v>189216000</v>
@@ -912,7 +912,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>105782373.7280074</v>
+        <v>52306000.80832595</v>
       </c>
       <c r="C12">
         <v>189216000</v>
@@ -956,7 +956,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>93212006.59332223</v>
+        <v>26793512.58399666</v>
       </c>
       <c r="C2">
         <v>189216000</v>
@@ -973,7 +973,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>3.052298521376265</v>
+        <v>2.405388276264408</v>
       </c>
       <c r="C3">
         <v>189216000</v>
@@ -990,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>9.823810521835886</v>
+        <v>6.73523482439196</v>
       </c>
       <c r="C4">
         <v>189216000</v>
@@ -1007,7 +1007,7 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>5167829.967392186</v>
+        <v>1352578.414539038</v>
       </c>
       <c r="C5">
         <v>189216000</v>
@@ -1024,7 +1024,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>9.823810521835886</v>
+        <v>6.73523482439196</v>
       </c>
       <c r="C6">
         <v>189216000</v>
@@ -1041,7 +1041,7 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>18.74620825299308</v>
+        <v>4.784555234453734</v>
       </c>
       <c r="C7">
         <v>189216000</v>
@@ -1058,7 +1058,7 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>1545966.590419595</v>
+        <v>391570.3606351411</v>
       </c>
       <c r="C8">
         <v>189216000</v>
@@ -1075,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2.245890916077438</v>
+        <v>0.8748130489149026</v>
       </c>
       <c r="C9">
         <v>189216000</v>
@@ -1092,7 +1092,7 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>1227986.741506028</v>
+        <v>315455.513994543</v>
       </c>
       <c r="C10">
         <v>189216000</v>
@@ -1109,7 +1109,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>94354106.26312643</v>
+        <v>70339523.72893846</v>
       </c>
       <c r="C11">
         <v>189216000</v>
@@ -1126,7 +1126,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>813.3565392922075</v>
+        <v>508.616671934712</v>
       </c>
       <c r="C12">
         <v>189216000</v>
@@ -1143,7 +1143,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>629.187774823055</v>
+        <v>251.3412006799138</v>
       </c>
       <c r="C13">
         <v>189216000</v>
@@ -1160,7 +1160,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5775430.359787021</v>
+        <v>3335430.148482942</v>
       </c>
       <c r="C14">
         <v>189216000</v>
@@ -1177,7 +1177,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>1244509656.250013</v>
+        <v>360528197.7244558</v>
       </c>
       <c r="C15">
         <v>189216000</v>
@@ -1194,7 +1194,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>105782373.7280074</v>
+        <v>52306000.80832595</v>
       </c>
       <c r="C16">
         <v>189216000</v>
@@ -1238,7 +1238,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>93212006.59332223</v>
+        <v>26793512.58399666</v>
       </c>
       <c r="C2">
         <v>189216000</v>
@@ -1255,7 +1255,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>3.052298521376265</v>
+        <v>2.405388276264408</v>
       </c>
       <c r="C3">
         <v>189216000</v>
@@ -1272,7 +1272,7 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>5167829.967392186</v>
+        <v>1352578.414539038</v>
       </c>
       <c r="C4">
         <v>189216000</v>
@@ -1289,7 +1289,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>9.823810521835886</v>
+        <v>6.73523482439196</v>
       </c>
       <c r="C5">
         <v>189216000</v>
@@ -1306,7 +1306,7 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>18.74620825299308</v>
+        <v>4.784555234453734</v>
       </c>
       <c r="C6">
         <v>189216000</v>
@@ -1323,7 +1323,7 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>1545966.590419595</v>
+        <v>391570.3606351411</v>
       </c>
       <c r="C7">
         <v>189216000</v>
@@ -1340,7 +1340,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>2.245890916077438</v>
+        <v>0.8748130489149026</v>
       </c>
       <c r="C8">
         <v>189216000</v>
@@ -1357,7 +1357,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>1227986.741506028</v>
+        <v>315455.513994543</v>
       </c>
       <c r="C9">
         <v>189216000</v>
@@ -1374,7 +1374,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>94354106.26312643</v>
+        <v>70339523.72893846</v>
       </c>
       <c r="C10">
         <v>189216000</v>
@@ -1391,7 +1391,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>813.3565392922075</v>
+        <v>508.616671934712</v>
       </c>
       <c r="C11">
         <v>189216000</v>
@@ -1408,7 +1408,7 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>535156.1744115439</v>
+        <v>133399.6544389944</v>
       </c>
       <c r="C12">
         <v>189216000</v>
@@ -1425,7 +1425,7 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>5859524.053556924</v>
+        <v>1458484.046220555</v>
       </c>
       <c r="C13">
         <v>189216000</v>
@@ -1442,7 +1442,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5775430.359787021</v>
+        <v>3335430.148482942</v>
       </c>
       <c r="C14">
         <v>189216000</v>
@@ -1459,7 +1459,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>1244509656.250013</v>
+        <v>360528197.7244558</v>
       </c>
       <c r="C15">
         <v>189216000</v>
@@ -1476,7 +1476,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>105782373.7280074</v>
+        <v>52306000.80832595</v>
       </c>
       <c r="C16">
         <v>189216000</v>
@@ -1493,7 +1493,7 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>629.187774823055</v>
+        <v>251.3412006799138</v>
       </c>
       <c r="C17">
         <v>189216000</v>
@@ -1555,19 +1555,19 @@
         <v>1.792966881572842e-10</v>
       </c>
       <c r="C2">
-        <v>4.014763522915493e-10</v>
+        <v>3.345636269096244e-10</v>
       </c>
       <c r="D2">
-        <v>0.01255755064376889</v>
+        <v>0.0401843477973273</v>
       </c>
       <c r="E2">
         <v>-598219.5845697329</v>
       </c>
       <c r="F2">
-        <v>0.0003312968705823149</v>
+        <v>0.0002760807254852624</v>
       </c>
       <c r="G2">
-        <v>0.3118520411591714</v>
+        <v>0.06238489235658682</v>
       </c>
       <c r="H2">
         <v>189216000</v>
@@ -1587,19 +1587,19 @@
         <v>2.59536830230192e-09</v>
       </c>
       <c r="C3">
-        <v>5.81147933946907e-09</v>
+        <v>4.842899449557559e-09</v>
       </c>
       <c r="D3">
-        <v>0.02987908641986995</v>
+        <v>0.2136165247349333</v>
       </c>
       <c r="E3">
         <v>-598219.5845697329</v>
       </c>
       <c r="F3">
-        <v>0.0008781739499554042</v>
+        <v>0.0007318116249628369</v>
       </c>
       <c r="G3">
-        <v>1.852410431451176</v>
+        <v>0.1490751025255735</v>
       </c>
       <c r="H3">
         <v>189216000</v>
@@ -1619,19 +1619,19 @@
         <v>2.106202883860264e-09</v>
       </c>
       <c r="C4">
-        <v>4.716153207784763e-09</v>
+        <v>3.930127673153969e-09</v>
       </c>
       <c r="D4">
-        <v>0.005035438053739419</v>
+        <v>0.1058031063533843</v>
       </c>
       <c r="E4">
         <v>-598219.5845697329</v>
       </c>
       <c r="F4">
-        <v>6.773905545110891e-05</v>
+        <v>5.64492128759241e-05</v>
       </c>
       <c r="G4">
-        <v>1.010476524548291</v>
+        <v>0.02519079068271374</v>
       </c>
       <c r="H4">
         <v>189216000</v>
@@ -1651,19 +1651,19 @@
         <v>0.01953985286084303</v>
       </c>
       <c r="C5">
-        <v>0.04375311630967314</v>
+        <v>0.03646093025806096</v>
       </c>
       <c r="D5">
-        <v>159348.5570059229</v>
+        <v>1316065.921744288</v>
       </c>
       <c r="E5">
         <v>-598219.5845697329</v>
       </c>
       <c r="F5">
-        <v>9605.378060630863</v>
+        <v>8004.481717192385</v>
       </c>
       <c r="G5">
-        <v>11880964.56272043</v>
+        <v>791794.1399865686</v>
       </c>
       <c r="H5">
         <v>189216000</v>
@@ -1683,19 +1683,19 @@
         <v>1.840392537843684e-07</v>
       </c>
       <c r="C6">
-        <v>4.120957784953104e-07</v>
+        <v>3.43413148746092e-07</v>
       </c>
       <c r="D6">
-        <v>2.67079446507371</v>
+        <v>24.37743487290656</v>
       </c>
       <c r="E6">
         <v>-598219.5845697329</v>
       </c>
       <c r="F6">
-        <v>0.06479444206176482</v>
+        <v>0.05399536838480401</v>
       </c>
       <c r="G6">
-        <v>200.9919032623676</v>
+        <v>13.89870191245105</v>
       </c>
       <c r="H6">
         <v>189216000</v>
@@ -1715,19 +1715,19 @@
         <v>0.00210757648530967</v>
       </c>
       <c r="C7">
-        <v>0.004719228939439808</v>
+        <v>0.003932690782866507</v>
       </c>
       <c r="D7">
-        <v>22499.31293453972</v>
+        <v>208096.4728680373</v>
       </c>
       <c r="E7">
         <v>-598219.5845697329</v>
       </c>
       <c r="F7">
-        <v>395.6787292358986</v>
+        <v>329.7322743632488</v>
       </c>
       <c r="G7">
-        <v>1700922.877155422</v>
+        <v>115728.954145998</v>
       </c>
       <c r="H7">
         <v>189216000</v>
@@ -1747,19 +1747,19 @@
         <v>0.0657868772313132</v>
       </c>
       <c r="C8">
-        <v>0.1473082172957391</v>
+        <v>0.1227568477464493</v>
       </c>
       <c r="D8">
-        <v>362012.8382486775</v>
+        <v>4252913.276085217</v>
       </c>
       <c r="E8">
         <v>-598219.5845697329</v>
       </c>
       <c r="F8">
-        <v>5404.828783494361</v>
+        <v>4504.023986245301</v>
       </c>
       <c r="G8">
-        <v>38635319.84407286</v>
+        <v>1970843.120878574</v>
       </c>
       <c r="H8">
         <v>189216000</v>
@@ -1779,19 +1779,19 @@
         <v>1.081836965408379e-07</v>
       </c>
       <c r="C9">
-        <v>2.422420420087774e-07</v>
+        <v>2.018683683406478e-07</v>
       </c>
       <c r="D9">
-        <v>6.021377963891995</v>
+        <v>34.57853657959976</v>
       </c>
       <c r="E9">
         <v>-598219.5845697329</v>
       </c>
       <c r="F9">
-        <v>0.02662297091110765</v>
+        <v>0.02218580909258971</v>
       </c>
       <c r="G9">
-        <v>288.332307024566</v>
+        <v>15.50405634531839</v>
       </c>
       <c r="H9">
         <v>189216000</v>
@@ -1838,10 +1838,10 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>121.0744847559724</v>
+        <v>105.8119773451212</v>
       </c>
       <c r="C2">
-        <v>4138696.84696642</v>
+        <v>453176.6071055078</v>
       </c>
       <c r="D2">
         <v>189216000</v>
@@ -1858,10 +1858,10 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.0004482330424361773</v>
+        <v>0.00039172931131761</v>
       </c>
       <c r="C3">
-        <v>14.93622739228557</v>
+        <v>1.454856088254048</v>
       </c>
       <c r="D3">
         <v>189216000</v>
@@ -1878,10 +1878,10 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>37.17892860669366</v>
+        <v>32.49219651338051</v>
       </c>
       <c r="C4">
-        <v>1229945.697262699</v>
+        <v>115386.6902714068</v>
       </c>
       <c r="D4">
         <v>189216000</v>
@@ -1898,10 +1898,10 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>29.04191211145895</v>
+        <v>25.38092276494375</v>
       </c>
       <c r="C5">
-        <v>981130.4885586266</v>
+        <v>99717.67049252114</v>
       </c>
       <c r="D5">
         <v>189216000</v>
@@ -1918,10 +1918,10 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>12.96792011185074</v>
+        <v>11.33319932646507</v>
       </c>
       <c r="C6">
-        <v>424928.8534608125</v>
+        <v>37067.46016404132</v>
       </c>
       <c r="D6">
         <v>189216000</v>
@@ -1938,10 +1938,10 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>142.061722936549</v>
+        <v>124.1535889189858</v>
       </c>
       <c r="C7">
-        <v>4651999.408596257</v>
+        <v>403178.5404091762</v>
       </c>
       <c r="D7">
         <v>189216000</v>
@@ -1988,10 +1988,10 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>12.96792011185074</v>
+        <v>11.33319932646507</v>
       </c>
       <c r="C2">
-        <v>424928.8534608125</v>
+        <v>37067.46016404132</v>
       </c>
       <c r="D2">
         <v>189216000</v>
@@ -2008,10 +2008,10 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>142.061722936549</v>
+        <v>124.1535889189858</v>
       </c>
       <c r="C3">
-        <v>4651999.408596257</v>
+        <v>403178.5404091762</v>
       </c>
       <c r="D3">
         <v>189216000</v>

--- a/generated_files/Simplified models coefficients enhanced - symbolic - thresholds.xlsx
+++ b/generated_files/Simplified models coefficients enhanced - symbolic - thresholds.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andpa\OneDrive - University College London\S4CE\GSA\Geothermal\generated_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_847A5E899451DDB0ADEC448407685BD455A633C4" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E334300F-F8A1-48C8-84E0-722BEB22555A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chi_5%" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
     <sheet name="delta_10%" sheetId="6" r:id="rId6"/>
     <sheet name="delta_15%" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -118,8 +124,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,17 +177,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -228,7 +246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,9 +278,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,6 +330,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -469,14 +523,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,164 +546,164 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>8.777682462857731e-25</v>
-      </c>
-      <c r="E2">
-        <v>4.757086584123677e-10</v>
-      </c>
-      <c r="F2">
-        <v>1.474106398581485e-10</v>
-      </c>
-      <c r="G2">
-        <v>9.027850849556912e-11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="D2" s="3">
+        <v>7.899914216571968E-13</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5.2009856545135432E-10</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.474106398581485E-10</v>
+      </c>
+      <c r="G2" s="3">
+        <v>9.0278508495569116E-11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>2.432536351246976e-24</v>
-      </c>
-      <c r="E3">
-        <v>1.758902739940909e-09</v>
-      </c>
-      <c r="F3">
-        <v>4.085152789849041e-10</v>
-      </c>
-      <c r="G3">
-        <v>3.409929910553314e-10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="D3" s="3">
+        <v>2.1892827161222789E-12</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.8642548546018621E-9</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.0851527898490408E-10</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.4099299105533141E-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>2.827723015281433e-25</v>
-      </c>
-      <c r="E4">
-        <v>6.656860888210424e-10</v>
-      </c>
-      <c r="F4">
-        <v>4.748821352197111e-11</v>
-      </c>
-      <c r="G4">
-        <v>5.486814061112312e-11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
+      <c r="D4" s="3">
+        <v>2.544950713753295E-13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6.8344630173707558E-10</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.7488213521971108E-11</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5.4868140611123123E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>2.616520079934667e-17</v>
-      </c>
-      <c r="E5">
-        <v>0.01029781574880059</v>
-      </c>
-      <c r="F5">
-        <v>0.004394131375986124</v>
-      </c>
-      <c r="G5">
-        <v>0.00159042819425672</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="D5" s="3">
+        <v>2.3548680719412E-5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.086015501829392E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.3941313759861241E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.5904281942567199E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6">
-        <v>1.791080838362685e-22</v>
-      </c>
-      <c r="E6">
-        <v>1.881729997478324e-07</v>
-      </c>
-      <c r="F6">
-        <v>3.007905259023856e-08</v>
-      </c>
-      <c r="G6">
-        <v>4.519335723759186e-08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
+      <c r="D6" s="3">
+        <v>1.6119727545264159E-10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.9755883546445949E-7</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.0079052590238562E-8</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.5193357237591859E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7">
-        <v>1.142855596572645e-18</v>
-      </c>
-      <c r="E7">
-        <v>0.001592498066122908</v>
-      </c>
-      <c r="F7">
-        <v>0.0001919288781168686</v>
-      </c>
-      <c r="G7">
-        <v>0.000385341527004742</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="D7" s="3">
+        <v>1.028570036915381E-6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.6715564257260109E-3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.9192887811686859E-4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3.8534152700474202E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8">
-        <v>1.745770445422131e-17</v>
-      </c>
-      <c r="E8">
-        <v>0.03097911148483945</v>
-      </c>
-      <c r="F8">
-        <v>0.002931811893333607</v>
-      </c>
-      <c r="G8">
-        <v>0.005907572497700781</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="D8" s="3">
+        <v>1.5711934008799179E-5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3.2251777924401911E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2.9318118933336071E-3</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5.9075724977007806E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9">
-        <v>7.521800158691106e-23</v>
-      </c>
-      <c r="E9">
-        <v>2.328619934943695e-07</v>
-      </c>
-      <c r="F9">
-        <v>1.263196041745159e-08</v>
-      </c>
-      <c r="G9">
-        <v>4.161657469364381e-08</v>
+      <c r="D9" s="3">
+        <v>6.7696201428219946E-11</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.5415061996752778E-7</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.2631960417451589E-8</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4.1616574693643808E-8</v>
       </c>
     </row>
   </sheetData>
@@ -662,14 +718,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,8 +735,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -687,134 +745,134 @@
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2">
-        <v>0.1092403863506284</v>
-      </c>
-      <c r="E2">
-        <v>0.0007864316170153643</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="D2" s="3">
+        <v>0.14089376889846711</v>
+      </c>
+      <c r="E2" s="3">
+        <v>7.8643161701536434E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>9.16118060073691e-09</v>
-      </c>
-      <c r="E3">
-        <v>9.027850849556912e-11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="D3" s="3">
+        <v>1.2563034049815251E-8</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9.0278508495569116E-11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
-        <v>2.582872563093852e-08</v>
-      </c>
-      <c r="E4">
-        <v>3.409929910553314e-10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="D4" s="3">
+        <v>3.523852928910883E-8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3.4099299105533141E-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>3.463703562546819e-09</v>
-      </c>
-      <c r="E5">
-        <v>5.486814061112312e-11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="D5" s="3">
+        <v>4.5630678288067991E-9</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5.4868140611123123E-11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6">
-        <v>0.269201140595238</v>
-      </c>
-      <c r="E6">
-        <v>0.00159042819425672</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="D6" s="3">
+        <v>0.36984537292212122</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.5904281942567199E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7">
-        <v>1.960438336738568e-06</v>
-      </c>
-      <c r="E7">
-        <v>4.519335723759186e-08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+      <c r="D7" s="3">
+        <v>2.6549125931281612E-6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4.5193357237591859E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
-        <v>0.01290099579335628</v>
-      </c>
-      <c r="E8">
-        <v>0.000385341527004742</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="D8" s="3">
+        <v>1.735147680984489E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3.8534152700474202E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9">
-        <v>1.469076438984317</v>
-      </c>
-      <c r="E9">
-        <v>0.010650156570518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="D9" s="3">
+        <v>1.896176429184</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.0650156570518E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10">
-        <v>0.2037222049564255</v>
-      </c>
-      <c r="E10">
-        <v>0.005907572497700781</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="D10" s="3">
+        <v>0.27177059093331019</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5.9075724977007806E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11">
-        <v>9.77140275495635e-07</v>
-      </c>
-      <c r="E11">
-        <v>4.161657469364381e-08</v>
+      <c r="D11" s="3">
+        <v>1.2861377580384089E-6</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4.1616574693643808E-8</v>
       </c>
     </row>
   </sheetData>
@@ -829,14 +887,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -844,8 +904,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -854,186 +914,186 @@
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2">
-        <v>0.1092403863506284</v>
-      </c>
-      <c r="E2">
-        <v>0.0007864316170153643</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="D2" s="3">
+        <v>0.14089376889846711</v>
+      </c>
+      <c r="E2" s="3">
+        <v>7.8643161701536434E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>9.16118060073691e-09</v>
-      </c>
-      <c r="E3">
-        <v>9.027850849556912e-11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="D3" s="3">
+        <v>1.2563034049815251E-8</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9.0278508495569116E-11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
-        <v>0.005574869915993204</v>
-      </c>
-      <c r="E4">
-        <v>2.498489685520157e-05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="D4" s="3">
+        <v>7.1298213414146992E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2.4984896855201571E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
-        <v>2.582872563093852e-08</v>
-      </c>
-      <c r="E5">
-        <v>3.409929910553314e-10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="D5" s="3">
+        <v>3.523852928910883E-8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.4099299105533141E-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6">
-        <v>1.976237548310685e-08</v>
-      </c>
-      <c r="E6">
-        <v>1.328835523793798e-09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="D6" s="3">
+        <v>2.5236599425502631E-8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.3288355237937979E-9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7">
-        <v>0.001618907326858836</v>
-      </c>
-      <c r="E7">
-        <v>3.303787599036925e-06</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="D7" s="3">
+        <v>2.0661494652435691E-3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3.3037875990369252E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8">
-        <v>3.463703562546819e-09</v>
-      </c>
-      <c r="E8">
-        <v>5.486814061112312e-11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+      <c r="D8" s="3">
+        <v>4.5630678288067991E-9</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5.4868140611123123E-11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9">
-        <v>0.001302088092765836</v>
-      </c>
-      <c r="E9">
-        <v>5.371852809008733e-06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="D9" s="3">
+        <v>1.663274931023178E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.3718528090087333E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10">
-        <v>0.269201140595238</v>
-      </c>
-      <c r="E10">
-        <v>0.00159042819425672</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="D10" s="3">
+        <v>0.36984537292212122</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.5904281942567199E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11">
-        <v>1.960438336738568e-06</v>
-      </c>
-      <c r="E11">
-        <v>4.519335723759186e-08</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
+      <c r="D11" s="3">
+        <v>2.6549125931281612E-6</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4.5193357237591859E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12">
-        <v>0.01290099579335628</v>
-      </c>
-      <c r="E12">
-        <v>0.000385341527004742</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="D12" s="3">
+        <v>1.735147680984489E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3.8534152700474202E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D13">
-        <v>1.469076438984317</v>
-      </c>
-      <c r="E13">
-        <v>0.010650156570518</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="D13" s="3">
+        <v>1.896176429184</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.0650156570518E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14">
-        <v>0.2037222049564255</v>
-      </c>
-      <c r="E14">
-        <v>0.005907572497700781</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="D14" s="3">
+        <v>0.27177059093331019</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5.9075724977007806E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D15">
-        <v>9.77140275495635e-07</v>
-      </c>
-      <c r="E15">
-        <v>4.161657469364381e-08</v>
+      <c r="D15" s="3">
+        <v>1.2861377580384089E-6</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4.1616574693643808E-8</v>
       </c>
     </row>
   </sheetData>
@@ -1048,14 +1108,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1063,8 +1125,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1073,212 +1135,212 @@
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2">
-        <v>0.1092403863506284</v>
-      </c>
-      <c r="E2">
-        <v>0.0007864316170153643</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="D2" s="3">
+        <v>0.14089376889846711</v>
+      </c>
+      <c r="E2" s="3">
+        <v>7.8643161701536434E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>9.16118060073691e-09</v>
-      </c>
-      <c r="E3">
-        <v>9.027850849556912e-11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="D3" s="3">
+        <v>1.2563034049815251E-8</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9.0278508495569116E-11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
-        <v>0.005574869915993204</v>
-      </c>
-      <c r="E4">
-        <v>2.498489685520157e-05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="D4" s="3">
+        <v>7.1298213414146992E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2.4984896855201571E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
-        <v>2.582872563093852e-08</v>
-      </c>
-      <c r="E5">
-        <v>3.409929910553314e-10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="D5" s="3">
+        <v>3.523852928910883E-8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.4099299105533141E-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6">
-        <v>1.976237548310685e-08</v>
-      </c>
-      <c r="E6">
-        <v>1.328835523793798e-09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="D6" s="3">
+        <v>2.5236599425502631E-8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.3288355237937979E-9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7">
-        <v>0.001618907326858836</v>
-      </c>
-      <c r="E7">
-        <v>3.303787599036925e-06</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="D7" s="3">
+        <v>2.0661494652435691E-3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3.3037875990369252E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8">
-        <v>3.463703562546819e-09</v>
-      </c>
-      <c r="E8">
-        <v>5.486814061112312e-11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+      <c r="D8" s="3">
+        <v>4.5630678288067991E-9</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5.4868140611123123E-11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9">
-        <v>0.001302088092765836</v>
-      </c>
-      <c r="E9">
-        <v>5.371852809008733e-06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="D9" s="3">
+        <v>1.663274931023178E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.3718528090087333E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10">
-        <v>0.269201140595238</v>
-      </c>
-      <c r="E10">
-        <v>0.00159042819425672</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="D10" s="3">
+        <v>0.36984537292212122</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.5904281942567199E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11">
-        <v>1.960438336738568e-06</v>
-      </c>
-      <c r="E11">
-        <v>4.519335723759186e-08</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="D11" s="3">
+        <v>2.6549125931281612E-6</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4.5193357237591859E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12">
-        <v>0.000552585182458786</v>
-      </c>
-      <c r="E12">
-        <v>1.008641681560468e-06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="D12" s="3">
+        <v>7.0419413417603096E-4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.008641681560468E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13">
-        <v>0.006042546510049658</v>
-      </c>
-      <c r="E13">
-        <v>9.592105755589116e-06</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
+      <c r="D13" s="3">
+        <v>7.6989348448575643E-3</v>
+      </c>
+      <c r="E13" s="3">
+        <v>9.5921057555891163E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D14">
-        <v>0.01290099579335628</v>
-      </c>
-      <c r="E14">
-        <v>0.000385341527004742</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="D14" s="3">
+        <v>1.735147680984489E-2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3.8534152700474202E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D15">
-        <v>1.469076438984317</v>
-      </c>
-      <c r="E15">
-        <v>0.010650156570518</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="D15" s="3">
+        <v>1.896176429184</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1.0650156570518E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16">
-        <v>0.2037222049564255</v>
-      </c>
-      <c r="E16">
-        <v>0.005907572497700781</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="D16" s="3">
+        <v>0.27177059093331019</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5.9075724977007806E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D17">
-        <v>9.77140275495635e-07</v>
-      </c>
-      <c r="E17">
-        <v>4.161657469364381e-08</v>
+      <c r="D17" s="3">
+        <v>1.2861377580384089E-6</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4.1616574693643808E-8</v>
       </c>
     </row>
   </sheetData>
@@ -1293,14 +1355,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:I9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1320,212 +1384,212 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>1.052863089786183e-30</v>
-      </c>
-      <c r="E2">
-        <v>1.768157169106336e-16</v>
-      </c>
-      <c r="F2">
-        <v>4.757086584123677e-10</v>
-      </c>
-      <c r="G2">
-        <v>-598219.5845697329</v>
-      </c>
-      <c r="H2">
-        <v>1.459077062644081e-10</v>
-      </c>
-      <c r="I2">
-        <v>9.027850849556912e-11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="D2" s="3">
+        <v>9.4757678080756487E-19</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.768157169106336E-16</v>
+      </c>
+      <c r="F2" s="3">
+        <v>5.2009856545135432E-10</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1.459077062644081E-10</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1.459077062644081E-10</v>
+      </c>
+      <c r="I2" s="3">
+        <v>9.0278508495569116E-11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>1.524047944208336e-29</v>
-      </c>
-      <c r="E3">
-        <v>2.559455569062636e-15</v>
-      </c>
-      <c r="F3">
-        <v>1.758902739940909e-09</v>
-      </c>
-      <c r="G3">
-        <v>-598219.5845697329</v>
-      </c>
-      <c r="H3">
-        <v>3.867599066478717e-10</v>
-      </c>
-      <c r="I3">
-        <v>3.409929910553314e-10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="D3" s="3">
+        <v>1.371643149787502E-17</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.559455569062636E-15</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.8642548546018621E-9</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.8675990664787169E-10</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1.459077062644081E-10</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.4099299105533141E-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>1.236801024496556e-29</v>
-      </c>
-      <c r="E4">
-        <v>2.077058849755818e-15</v>
-      </c>
-      <c r="F4">
-        <v>6.656860888210424e-10</v>
-      </c>
-      <c r="G4">
-        <v>-598219.5845697329</v>
-      </c>
-      <c r="H4">
-        <v>2.983321329904665e-11</v>
-      </c>
-      <c r="I4">
-        <v>5.486814061112312e-11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
+      <c r="D4" s="3">
+        <v>1.1131209220469011E-17</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2.077058849755818E-15</v>
+      </c>
+      <c r="F4" s="3">
+        <v>6.8344630173707558E-10</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2.9833213299046647E-11</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1.459077062644081E-10</v>
+      </c>
+      <c r="I4" s="3">
+        <v>5.4868140611123123E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>1.147416054834629e-22</v>
-      </c>
-      <c r="E5">
-        <v>1.926947523362768e-08</v>
-      </c>
-      <c r="F5">
-        <v>0.01029781574880059</v>
-      </c>
-      <c r="G5">
-        <v>-598219.5845697329</v>
-      </c>
-      <c r="H5">
-        <v>0.004230340836500288</v>
-      </c>
-      <c r="I5">
-        <v>0.00159042819425672</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="D5" s="3">
+        <v>1.032674449351166E-10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.9269475233627679E-8</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.086015501829392E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.2303408365002883E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1.459077062644081E-10</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1.5904281942567199E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6">
-        <v>1.080712306361034e-27</v>
-      </c>
-      <c r="E6">
-        <v>1.814926585204681e-13</v>
-      </c>
-      <c r="F6">
-        <v>1.881729997478324e-07</v>
-      </c>
-      <c r="G6">
-        <v>-598219.5845697329</v>
-      </c>
-      <c r="H6">
-        <v>2.853636499281457e-08</v>
-      </c>
-      <c r="I6">
-        <v>4.519335723759186e-08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
+      <c r="D6" s="3">
+        <v>9.726410757249304E-16</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.8149265852046809E-13</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.9755883546445949E-7</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.8536364992814569E-8</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1.459077062644081E-10</v>
+      </c>
+      <c r="I6" s="3">
+        <v>4.5193357237591859E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7">
-        <v>1.237607628500802e-23</v>
-      </c>
-      <c r="E7">
-        <v>2.078413444352754e-09</v>
-      </c>
-      <c r="F7">
-        <v>0.001592498066122908</v>
-      </c>
-      <c r="G7">
-        <v>-598219.5845697329</v>
-      </c>
-      <c r="H7">
-        <v>0.0001742623638398702</v>
-      </c>
-      <c r="I7">
-        <v>0.000385341527004742</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="D7" s="3">
+        <v>1.1138468656507219E-11</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.0784134443527539E-9</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.6715564257260109E-3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.7426236383987021E-4</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1.459077062644081E-10</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3.8534152700474202E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8">
-        <v>3.863126281974815e-22</v>
-      </c>
-      <c r="E8">
-        <v>6.487656844370945e-08</v>
-      </c>
-      <c r="F8">
-        <v>0.03097911148483945</v>
-      </c>
-      <c r="G8">
-        <v>-598219.5845697329</v>
-      </c>
-      <c r="H8">
-        <v>0.002380361061562078</v>
-      </c>
-      <c r="I8">
-        <v>0.005907572497700781</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="D8" s="3">
+        <v>3.4768136537773328E-10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6.4876568443709448E-8</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3.2251777924401911E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2.380361061562078E-3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1.459077062644081E-10</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5.9075724977007806E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9">
-        <v>6.352745395082744e-28</v>
-      </c>
-      <c r="E9">
-        <v>1.066867328030644e-13</v>
-      </c>
-      <c r="F9">
-        <v>2.328619934943695e-07</v>
-      </c>
-      <c r="G9">
-        <v>-598219.5845697329</v>
-      </c>
-      <c r="H9">
-        <v>1.172512318862554e-08</v>
-      </c>
-      <c r="I9">
-        <v>4.161657469364381e-08</v>
+      <c r="D9" s="3">
+        <v>5.7174708555744708E-16</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.066867328030644E-13</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2.5415061996752778E-7</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1.1725123188625541E-8</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1.459077062644081E-10</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4.1616574693643808E-8</v>
       </c>
     </row>
   </sheetData>
@@ -1540,14 +1604,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1558,106 +1624,106 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2">
-        <v>4.033091126241382e-07</v>
-      </c>
-      <c r="E2">
-        <v>0.002146742458688029</v>
-      </c>
-      <c r="F2">
-        <v>2.498489685520157e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="D2" s="3">
+        <v>5.5921263183410082E-7</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2.3765139708248439E-3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2.4984896855201571E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3">
-        <v>1.49310130006427e-12</v>
-      </c>
-      <c r="E3">
-        <v>7.071014432560675e-09</v>
-      </c>
-      <c r="F3">
-        <v>1.328835523793798e-09</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="D3" s="3">
+        <v>2.0702758293041268E-12</v>
+      </c>
+      <c r="E3" s="3">
+        <v>7.6392548764175423E-9</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.3288355237937979E-9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4">
-        <v>1.23846083135548e-07</v>
-      </c>
-      <c r="E4">
-        <v>0.0005662156202066779</v>
-      </c>
-      <c r="F4">
-        <v>3.303787599036925e-06</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
+      <c r="D4" s="3">
+        <v>1.7172013208914951E-7</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6.0652834248579879E-4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3.3037875990369252E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5">
-        <v>9.674100886068764e-08</v>
-      </c>
-      <c r="E5">
-        <v>0.0004797895174499912</v>
-      </c>
-      <c r="F5">
-        <v>5.371852809008733e-06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="D5" s="3">
+        <v>1.341372968720602E-7</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5.2310790761066629E-4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5.3718528090087333E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6">
-        <v>4.319721338011513e-08</v>
-      </c>
-      <c r="E6">
-        <v>0.0001854088687278073</v>
-      </c>
-      <c r="F6">
-        <v>1.008641681560468e-06</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="D6" s="3">
+        <v>5.989556552545806E-8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.9508182720963729E-4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.008641681560468E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7">
-        <v>4.73219337095461e-07</v>
-      </c>
-      <c r="E7">
-        <v>0.002020182144738241</v>
-      </c>
-      <c r="F7">
-        <v>9.592105755589116e-06</v>
+      <c r="D7" s="3">
+        <v>6.5614741310980998E-7</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.1216818334241802E-3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>9.5921057555891163E-6</v>
       </c>
     </row>
   </sheetData>
@@ -1671,14 +1737,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1689,40 +1755,40 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D2">
-        <v>4.319721338011513e-08</v>
+        <v>5.989556552545806E-8</v>
       </c>
       <c r="E2">
-        <v>0.0001854088687278073</v>
+        <v>1.9508182720963729E-4</v>
       </c>
       <c r="F2">
-        <v>1.008641681560468e-06</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+        <v>1.008641681560468E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D3">
-        <v>4.73219337095461e-07</v>
+        <v>6.5614741310980998E-7</v>
       </c>
       <c r="E3">
-        <v>0.002020182144738241</v>
+        <v>2.1216818334241802E-3</v>
       </c>
       <c r="F3">
-        <v>9.592105755589116e-06</v>
+        <v>9.5921057555891163E-6</v>
       </c>
     </row>
   </sheetData>
